--- a/casestudy/css-loader-789/results.xlsx
+++ b/casestudy/css-loader-789/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/css-loader-789/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685482C-19D8-5240-AD47-F0670F300F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECF5A6-1112-DE44-A089-96B3ACACE369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -1279,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -1309,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="324" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F4CE5-1A94-D544-828F-3756B1B1292E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="B7 C7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8478CE-4E42-ED49-86FC-D0F1E49FB7E9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
